--- a/formats/excel/Formats RHA ANO 17.xlsx
+++ b/formats/excel/Formats RHA ANO 17.xlsx
@@ -1,668 +1,1011 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="75" windowWidth="23715" windowHeight="11055"/>
+    <workbookView windowWidth="24240" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
+  <si>
+    <t>libelle</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>longueur</t>
+  </si>
+  <si>
+    <t>position</t>
+  </si>
+  <si>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
   <si>
     <t xml:space="preserve">N° FINESS  e-PMSI </t>
   </si>
   <si>
+    <t>NOFINESS</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° format </t>
   </si>
   <si>
+    <t>NOFORM</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° format VID-HOSP </t>
   </si>
   <si>
+    <t>NOVIDHOSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mois de la date d'entrée du séjour </t>
   </si>
   <si>
+    <t>MOISENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Année de la date d'entrée du séjour </t>
   </si>
   <si>
+    <t>ANNEEENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « n° immatriculation assuré  » </t>
   </si>
   <si>
+    <t>CRSECU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « date de  naissance » </t>
   </si>
   <si>
+    <t>CRDNAI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « sexe » </t>
   </si>
   <si>
+    <t>CRSEXE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « n° d’identification administratif de séjour » </t>
   </si>
   <si>
+    <t>CRNODA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour « fusion ANO-HOSP et HOSP-PMSI » </t>
   </si>
   <si>
+    <t>CRFUSHOSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour « fusion ANO-PMSI et fichier PMSI » </t>
   </si>
   <si>
+    <t>CRFUSPMSI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « date de référence» ( date d'entrée du séjour) </t>
   </si>
   <si>
+    <t>CRDTENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Cohérence date naissance » </t>
   </si>
   <si>
+    <t>CRCDNAI</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Cohérence sexe » </t>
   </si>
   <si>
+    <t>CRCSEXE</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° anonyme </t>
   </si>
   <si>
+    <t>NOANON</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° anonyme individuel </t>
   </si>
   <si>
+    <t>NOANONIND</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° de séjour </t>
   </si>
   <si>
+    <t>NOSEJ</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° séquentiel dans fichier PMSI </t>
   </si>
   <si>
+    <t>NOSEQSEJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date d'entrée du séjour PMSI </t>
   </si>
   <si>
+    <t>DTENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date de sortie du séjour PMSI </t>
   </si>
   <si>
+    <t>DTSOR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « code grand régime » </t>
   </si>
   <si>
+    <t>CRCODEGR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « code gestion » </t>
   </si>
   <si>
+    <t>CRCDGESTION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « code justification d’exonération du ticket modérateur »  </t>
+  </si>
+  <si>
+    <t>CREXTICM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « code de prise en charge du forfait journalier » </t>
   </si>
   <si>
+    <t>CRPRFOJO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « nature d’assurance » </t>
   </si>
   <si>
+    <t>CRNATASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « type de contrat souscrit auprès d'un organisme complémentaire » </t>
+  </si>
+  <si>
+    <t>CRTYPECO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « séjour facturable à l’assurance maladie » </t>
   </si>
   <si>
+    <t>CRFACTAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « motif de la non facturation à l'assurance maladie » </t>
   </si>
   <si>
+    <t>CRMOTNOFACT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « facturation du 18 euro » </t>
   </si>
   <si>
+    <t>CRTOP18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « nombre de venues de la facture » </t>
   </si>
   <si>
+    <t>CRNBEVEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du ticket modérateur» </t>
   </si>
   <si>
+    <t>CRTICMOD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « montant à facturer au titre du forfait journalier » </t>
   </si>
   <si>
+    <t>CRFORJOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes ») </t>
+  </si>
+  <si>
+    <t>CRFACTOT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « montant lié à la majoration au parcours de soin » </t>
   </si>
   <si>
+    <t>CRMAJPAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « montant base remboursement » </t>
   </si>
   <si>
+    <t>CRMTBASE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « taux de remboursement » </t>
   </si>
   <si>
+    <t>CRTXRM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Patient bénéficiaire de la CMU » </t>
   </si>
   <si>
+    <t>CRPBCMU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filler </t>
   </si>
   <si>
+    <t>Filler1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Identifiant anonyme d'hospitalisation » </t>
   </si>
   <si>
+    <t>CRNOADM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Montant total du séjour remboursable pour l'AMC » </t>
   </si>
   <si>
+    <t>CRRMBAMC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Code participation assuré » </t>
   </si>
   <si>
+    <t>CRPARTASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « N° d’entrée » </t>
   </si>
   <si>
+    <t>CRNUMENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Rang de naissance » </t>
   </si>
   <si>
+    <t>CRRGNAISS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « Rang du bénéficiaire » </t>
   </si>
   <si>
+    <t>CRRGBEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « N° caisse gestionnaire » </t>
   </si>
   <si>
+    <t>CRCAISSGEST</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code retour contrôle « N° centre gestionnaire » </t>
   </si>
   <si>
+    <t>CRCENTRGEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Confirmation de la prise en charge dans le cadre du dispositif des soins urgents » </t>
+  </si>
+  <si>
+    <t>CRPECSU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Numéro accident du travail ou date d'accident de droit commun » </t>
+  </si>
+  <si>
+    <t>CRAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « N° d'organisme complémentaire » </t>
+  </si>
+  <si>
+    <t>CRCOMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « N° FINESS d’inscription e-PMSI » </t>
+  </si>
+  <si>
+    <t>CRCFINESSPMSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « N° immatriculation individuel » </t>
+  </si>
+  <si>
+    <t>CRCIMMATIND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Nature de la pièce justificative des droits » </t>
+  </si>
+  <si>
+    <t>CRCNATJUSTDROITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Prise en charge établie le » </t>
+  </si>
+  <si>
+    <t>CRCDATEPEC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Attestation de droits, carte Vitale ou prise en charge valable à compter du. » </t>
+  </si>
+  <si>
+    <t>CRCDATEATTEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Délivrée par » </t>
+  </si>
+  <si>
+    <t>CRCDELIVR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Régime de prestation de l’assuré » </t>
+  </si>
+  <si>
+    <t>CRCREGPRESTASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Top éclatement des flux par l’établissement » </t>
+  </si>
+  <si>
+    <t>CRCECLATFLUX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Date d’entrée » </t>
+  </si>
+  <si>
+    <t>CRCDTENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code retour contrôle « Date de sortie » </t>
+  </si>
+  <si>
+    <t>CRCDTSORT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code grand régime </t>
   </si>
   <si>
+    <t>CODEGR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code gestion </t>
   </si>
   <si>
+    <t>CDGESTION</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code justification d’exonération du ticket modérateur </t>
   </si>
   <si>
+    <t>CDEXTICM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code de prise en charge du forfait journalier  </t>
   </si>
   <si>
+    <t>CDPRFOJO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nature d'assurance </t>
   </si>
   <si>
+    <t>NATASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Type de contrat souscrit auprès d'un organisme complémentaire </t>
   </si>
   <si>
+    <t>TYPECONT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Séjour facturable à l’assurance maladie </t>
   </si>
   <si>
+    <t>FACTAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Motif de la non facturation à l'assurance maladie </t>
   </si>
   <si>
+    <t>MOTNOFACT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Facturation du 18 euro </t>
   </si>
   <si>
+    <t>FAC18</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nombre de venues de la facture </t>
   </si>
   <si>
+    <t>NBEVEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
   </si>
   <si>
+    <t>MTFACTMO</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant à facturer au titre du forfait journalier  </t>
   </si>
   <si>
+    <t>MTFORJOU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes) </t>
+  </si>
+  <si>
+    <t>MTFACTOT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant lié à la majoration au parcours de soins </t>
   </si>
   <si>
+    <t>MTMALPAR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant base remboursement </t>
   </si>
   <si>
+    <t>MTBASERM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Taux de remboursement </t>
   </si>
   <si>
+    <t>TAUXRM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Patient bénéficiaire de la CMU </t>
   </si>
   <si>
+    <t>PBCMU</t>
+  </si>
+  <si>
+    <t>FILLER2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifiant anonyme d'hospitalisation </t>
   </si>
   <si>
+    <t>DTHOSP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Montant total du séjour remboursable pour l'AMC </t>
   </si>
   <si>
+    <t>MTRMBAMC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code participation assuré  </t>
   </si>
   <si>
+    <t>PARTASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Identifiant de première hospitalisation </t>
   </si>
   <si>
+    <t>IDHOSPI1</t>
+  </si>
+  <si>
+    <t>Filler2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rang de naissance  </t>
   </si>
   <si>
+    <t>RGNAISS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rang du bénéficiaire  </t>
   </si>
   <si>
+    <t>RGBEN</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° caisse gestionnaire </t>
   </si>
   <si>
+    <t>CAISSGEST</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° centre gestionnaire  </t>
   </si>
   <si>
+    <t>CENTRGEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation de la prise en charge dans le cadre du dispositif des soins urgents </t>
+  </si>
+  <si>
+    <t>PECSU</t>
+  </si>
+  <si>
     <t xml:space="preserve">Numéro d'accident du travail ou date d'accident de droit commun </t>
   </si>
   <si>
+    <t>NUMAT</t>
+  </si>
+  <si>
     <t xml:space="preserve">N° d'organisme complémentaire </t>
   </si>
   <si>
+    <t>NUMCOMP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nature de la pièce justificative des droits </t>
   </si>
   <si>
+    <t>NATJUSTDROITS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prise en charge établie le </t>
   </si>
   <si>
+    <t>DATETABLPEC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attestation de droits, carte Vitale ou prise en charge valable à compter du. </t>
   </si>
   <si>
+    <t>DATCARTVITALE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Délivrée par </t>
   </si>
   <si>
+    <t>DELIVR</t>
+  </si>
+  <si>
     <t xml:space="preserve">Régime de prestation de l’assuré </t>
   </si>
   <si>
+    <t>REGPRESTASS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Top éclatement des flux par l’établissement </t>
   </si>
   <si>
+    <t>ECLATFLUX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date d’entrée </t>
   </si>
   <si>
+    <t>DTENT2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date de sortie </t>
   </si>
   <si>
+    <t>DTSORT2</t>
+  </si>
+  <si>
+    <t>Filler3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Empreinte numérique </t>
   </si>
   <si>
+    <t>EMPNUM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zone chiffrée </t>
   </si>
   <si>
-    <t xml:space="preserve">Code retour contrôle « code justification d’exonération du ticket modérateur »  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « type de contrat souscrit auprès d'un organisme complémentaire » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes ») </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant total du séjour remboursé par l’assurance maladie (i.e. hors prestations annexes) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confirmation de la prise en charge dans le cadre du dispositif des soins urgents </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Confirmation de la prise en charge dans le cadre du dispositif des soins urgents » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Numéro accident du travail ou date d'accident de droit commun » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « N° d'organisme complémentaire » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « N° FINESS d’inscription e-PMSI » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « N° immatriculation individuel » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Nature de la pièce justificative des droits » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Prise en charge établie le » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Attestation de droits, carte Vitale ou prise en charge valable à compter du. » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Délivrée par » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Régime de prestation de l’assuré » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Top éclatement des flux par l’établissement » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Date d’entrée » </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code retour contrôle « Date de sortie » </t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>longueur</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>libelle</t>
-  </si>
-  <si>
-    <t>fin</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>NOFINESS</t>
-  </si>
-  <si>
-    <t>NOFORM</t>
-  </si>
-  <si>
-    <t>NOVIDHOSP</t>
-  </si>
-  <si>
-    <t>MOISENT</t>
-  </si>
-  <si>
-    <t>ANNEEENT</t>
-  </si>
-  <si>
-    <t>CRSECU</t>
-  </si>
-  <si>
-    <t>CRDNAI</t>
-  </si>
-  <si>
-    <t>CRSEXE</t>
-  </si>
-  <si>
-    <t>CRNODA</t>
-  </si>
-  <si>
-    <t>CRFUSHOSP</t>
-  </si>
-  <si>
-    <t>CRFUSPMSI</t>
-  </si>
-  <si>
-    <t>CRDTENT</t>
-  </si>
-  <si>
-    <t>CRCDNAI</t>
-  </si>
-  <si>
-    <t>CRCSEXE</t>
-  </si>
-  <si>
-    <t>NOANON</t>
-  </si>
-  <si>
-    <t>NOSEJ</t>
-  </si>
-  <si>
-    <t>NOSEQSEJ</t>
-  </si>
-  <si>
-    <t>DTENT</t>
-  </si>
-  <si>
-    <t>DTSOR</t>
-  </si>
-  <si>
-    <t>CRCODEGR</t>
-  </si>
-  <si>
-    <t>CRCDGESTION</t>
-  </si>
-  <si>
-    <t>CREXTICM</t>
-  </si>
-  <si>
-    <t>CRPRFOJO</t>
-  </si>
-  <si>
-    <t>CRNATASS</t>
-  </si>
-  <si>
-    <t>CRTYPECO</t>
-  </si>
-  <si>
-    <t>CRFACTAM</t>
-  </si>
-  <si>
-    <t>CRMOTNOFACT</t>
-  </si>
-  <si>
-    <t>CRTOP18</t>
-  </si>
-  <si>
-    <t>CRNBEVEN</t>
-  </si>
-  <si>
-    <t>CRTICMOD</t>
-  </si>
-  <si>
-    <t>CRFORJOU</t>
-  </si>
-  <si>
-    <t>CRFACTOT</t>
-  </si>
-  <si>
-    <t>CRMAJPAR</t>
-  </si>
-  <si>
-    <t>CRMTBASE</t>
-  </si>
-  <si>
-    <t>CRTXRM</t>
-  </si>
-  <si>
-    <t>CRPBCMU</t>
-  </si>
-  <si>
-    <t>CRNOADM</t>
-  </si>
-  <si>
-    <t>CRRMBAMC</t>
-  </si>
-  <si>
-    <t>CRPARTASS</t>
-  </si>
-  <si>
-    <t>CRNUMENT</t>
-  </si>
-  <si>
-    <t>CRRGNAISS</t>
-  </si>
-  <si>
-    <t>CRRGBEN</t>
-  </si>
-  <si>
-    <t>CRCAISSGEST</t>
-  </si>
-  <si>
-    <t>CRCENTRGEST</t>
-  </si>
-  <si>
-    <t>CRPECSU</t>
-  </si>
-  <si>
-    <t>CRAT</t>
-  </si>
-  <si>
-    <t>CRCOMP</t>
-  </si>
-  <si>
-    <t>CODEGR</t>
-  </si>
-  <si>
-    <t>CDGESTION</t>
-  </si>
-  <si>
-    <t>CDEXTICM</t>
-  </si>
-  <si>
-    <t>CDPRFOJO</t>
-  </si>
-  <si>
-    <t>NATASS</t>
-  </si>
-  <si>
-    <t>TYPECONT</t>
-  </si>
-  <si>
-    <t>FACTAM</t>
-  </si>
-  <si>
-    <t>MOTNOFACT</t>
-  </si>
-  <si>
-    <t>FAC18</t>
-  </si>
-  <si>
-    <t>NBEVEN</t>
-  </si>
-  <si>
-    <t>MTFACTMO</t>
-  </si>
-  <si>
-    <t>MTFORJOU</t>
-  </si>
-  <si>
-    <t>MTFACTOT</t>
-  </si>
-  <si>
-    <t>MTMALPAR</t>
-  </si>
-  <si>
-    <t>MTBASERM</t>
-  </si>
-  <si>
-    <t>TAUXRM</t>
-  </si>
-  <si>
-    <t>PBCMU</t>
-  </si>
-  <si>
-    <t>FILLER2</t>
-  </si>
-  <si>
-    <t>DTHOSP</t>
-  </si>
-  <si>
-    <t>MTRMBAMC</t>
-  </si>
-  <si>
-    <t>PARTASS</t>
-  </si>
-  <si>
-    <t>IDHOSPI1</t>
-  </si>
-  <si>
-    <t>RGNAISS</t>
-  </si>
-  <si>
-    <t>RGBEN</t>
-  </si>
-  <si>
-    <t>CAISSGEST</t>
-  </si>
-  <si>
-    <t>CENTRGEST</t>
-  </si>
-  <si>
-    <t>PECSU</t>
-  </si>
-  <si>
-    <t>NUMAT</t>
-  </si>
-  <si>
-    <t>NUMCOMP</t>
-  </si>
-  <si>
-    <t>NOANONIND</t>
-  </si>
-  <si>
-    <t>CRCFINESSPMSI</t>
-  </si>
-  <si>
-    <t>CRCIMMATIND</t>
-  </si>
-  <si>
-    <t>CRCNATJUSTDROITS</t>
-  </si>
-  <si>
-    <t>CRCDATEPEC</t>
-  </si>
-  <si>
-    <t>CRCDATEATTEST</t>
-  </si>
-  <si>
-    <t>CRCDELIVR</t>
-  </si>
-  <si>
-    <t>CRCREGPRESTASS</t>
-  </si>
-  <si>
-    <t>CRCECLATFLUX</t>
-  </si>
-  <si>
-    <t>CRCDTENT</t>
-  </si>
-  <si>
-    <t>CRCDTSORT</t>
-  </si>
-  <si>
-    <t>NATJUSTDROITS</t>
-  </si>
-  <si>
-    <t>DATETABLPEC</t>
-  </si>
-  <si>
-    <t>DATCARTVITALE</t>
-  </si>
-  <si>
-    <t>DELIVR</t>
-  </si>
-  <si>
-    <t>REGPRESTASS</t>
-  </si>
-  <si>
-    <t>ECLATFLUX</t>
-  </si>
-  <si>
-    <t>DTENT2</t>
-  </si>
-  <si>
-    <t>DTSORT2</t>
-  </si>
-  <si>
-    <t>Filler2</t>
-  </si>
-  <si>
-    <t>EMPNUM</t>
-  </si>
-  <si>
     <t>ZONECHIFFREE</t>
-  </si>
-  <si>
-    <t>Filler1</t>
-  </si>
-  <si>
-    <t>Filler3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -670,24 +1013,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -696,7 +1323,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -977,45 +1604,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5733333333333" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="105.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="105.426666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.7133333333333" customWidth="1"/>
+    <col min="3" max="3" width="6.28666666666667" customWidth="1"/>
+    <col min="4" max="4" width="6.85333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -1027,15 +1657,15 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1047,15 +1677,15 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1067,15 +1697,15 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1087,15 +1717,15 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1107,15 +1737,15 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1127,15 +1757,15 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1147,15 +1777,15 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1167,15 +1797,15 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1187,15 +1817,15 @@
         <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1207,15 +1837,15 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1227,15 +1857,15 @@
         <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1247,15 +1877,15 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1267,15 +1897,15 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1287,15 +1917,15 @@
         <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -1307,15 +1937,15 @@
         <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="C17">
         <v>17</v>
@@ -1327,15 +1957,15 @@
         <v>64</v>
       </c>
       <c r="F17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -1347,15 +1977,15 @@
         <v>69</v>
       </c>
       <c r="F18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -1367,15 +1997,15 @@
         <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1387,15 +2017,15 @@
         <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -1407,15 +2037,15 @@
         <v>92</v>
       </c>
       <c r="F21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1427,15 +2057,15 @@
         <v>93</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1447,15 +2077,15 @@
         <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1467,15 +2097,15 @@
         <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1487,15 +2117,15 @@
         <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1507,15 +2137,15 @@
         <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:6">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>59</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1527,15 +2157,15 @@
         <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1547,15 +2177,15 @@
         <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1567,15 +2197,15 @@
         <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -1587,15 +2217,15 @@
         <v>101</v>
       </c>
       <c r="F30" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1607,15 +2237,15 @@
         <v>102</v>
       </c>
       <c r="F31" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1627,15 +2257,15 @@
         <v>103</v>
       </c>
       <c r="F32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1647,15 +2277,15 @@
         <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1667,15 +2297,15 @@
         <v>105</v>
       </c>
       <c r="F34" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1687,15 +2317,15 @@
         <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -1707,15 +2337,15 @@
         <v>107</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>140</v>
+        <v>79</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -1727,15 +2357,15 @@
         <v>108</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1747,15 +2377,15 @@
         <v>109</v>
       </c>
       <c r="F38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1767,15 +2397,15 @@
         <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1787,15 +2417,15 @@
         <v>113</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1807,15 +2437,15 @@
         <v>114</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B42" t="s">
-        <v>144</v>
+        <v>89</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1827,15 +2457,15 @@
         <v>115</v>
       </c>
       <c r="F42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -1847,15 +2477,15 @@
         <v>116</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -1867,15 +2497,15 @@
         <v>117</v>
       </c>
       <c r="F44" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -1887,15 +2517,15 @@
         <v>118</v>
       </c>
       <c r="F45" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1907,15 +2537,15 @@
         <v>119</v>
       </c>
       <c r="F46" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1927,15 +2557,15 @@
         <v>120</v>
       </c>
       <c r="F47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1947,15 +2577,15 @@
         <v>121</v>
       </c>
       <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>85</v>
-      </c>
-      <c r="B49" t="s">
-        <v>151</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -1967,15 +2597,15 @@
         <v>122</v>
       </c>
       <c r="F49" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>105</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1987,15 +2617,15 @@
         <v>123</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2007,15 +2637,15 @@
         <v>124</v>
       </c>
       <c r="F51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2027,15 +2657,15 @@
         <v>125</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>185</v>
+        <v>111</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2047,15 +2677,15 @@
         <v>126</v>
       </c>
       <c r="F53" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>186</v>
+        <v>113</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2067,15 +2697,15 @@
         <v>127</v>
       </c>
       <c r="F54" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>187</v>
+        <v>115</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2087,15 +2717,15 @@
         <v>128</v>
       </c>
       <c r="F55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2107,15 +2737,15 @@
         <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>189</v>
+        <v>119</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2127,15 +2757,15 @@
         <v>130</v>
       </c>
       <c r="F57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -2147,15 +2777,15 @@
         <v>131</v>
       </c>
       <c r="F58" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -2167,15 +2797,15 @@
         <v>132</v>
       </c>
       <c r="F59" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -2187,15 +2817,15 @@
         <v>133</v>
       </c>
       <c r="F60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -2207,15 +2837,15 @@
         <v>135</v>
       </c>
       <c r="F61" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -2227,15 +2857,15 @@
         <v>137</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="B63" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2247,15 +2877,15 @@
         <v>138</v>
       </c>
       <c r="F63" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>46</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -2267,15 +2897,15 @@
         <v>139</v>
       </c>
       <c r="F64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -2287,15 +2917,15 @@
         <v>141</v>
       </c>
       <c r="F65" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -2307,15 +2937,15 @@
         <v>143</v>
       </c>
       <c r="F66" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="B67" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -2327,15 +2957,15 @@
         <v>144</v>
       </c>
       <c r="F67" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="B68" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -2347,15 +2977,15 @@
         <v>145</v>
       </c>
       <c r="F68" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -2367,15 +2997,15 @@
         <v>146</v>
       </c>
       <c r="F69" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -2387,15 +3017,15 @@
         <v>150</v>
       </c>
       <c r="F70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C71">
         <v>10</v>
@@ -2407,15 +3037,15 @@
         <v>160</v>
       </c>
       <c r="F71" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>54</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C72">
         <v>10</v>
@@ -2427,15 +3057,15 @@
         <v>170</v>
       </c>
       <c r="F72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C73">
         <v>10</v>
@@ -2447,15 +3077,15 @@
         <v>180</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -2467,15 +3097,15 @@
         <v>184</v>
       </c>
       <c r="F74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>56</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C75">
         <v>10</v>
@@ -2487,15 +3117,15 @@
         <v>194</v>
       </c>
       <c r="F75" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>57</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -2507,15 +3137,15 @@
         <v>199</v>
       </c>
       <c r="F76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="B77" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -2527,15 +3157,15 @@
         <v>200</v>
       </c>
       <c r="F77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C78">
         <v>66</v>
@@ -2547,15 +3177,15 @@
         <v>266</v>
       </c>
       <c r="F78" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="B79" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C79">
         <v>8</v>
@@ -2567,15 +3197,15 @@
         <v>274</v>
       </c>
       <c r="F79" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C80">
         <v>10</v>
@@ -2587,15 +3217,15 @@
         <v>284</v>
       </c>
       <c r="F80" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -2607,15 +3237,15 @@
         <v>285</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C82">
         <v>6</v>
@@ -2627,15 +3257,15 @@
         <v>291</v>
       </c>
       <c r="F82" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="C83">
         <v>3</v>
@@ -2647,15 +3277,15 @@
         <v>294</v>
       </c>
       <c r="F83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="B84" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -2667,15 +3297,15 @@
         <v>295</v>
       </c>
       <c r="F84" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C85">
         <v>3</v>
@@ -2687,15 +3317,15 @@
         <v>298</v>
       </c>
       <c r="F85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="B86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C86">
         <v>3</v>
@@ -2707,12 +3337,12 @@
         <v>301</v>
       </c>
       <c r="F86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s">
         <v>178</v>
@@ -2727,15 +3357,15 @@
         <v>305</v>
       </c>
       <c r="F87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -2747,15 +3377,15 @@
         <v>306</v>
       </c>
       <c r="F88" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="B89" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C89">
         <v>9</v>
@@ -2767,15 +3397,15 @@
         <v>315</v>
       </c>
       <c r="F89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="B90" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C90">
         <v>10</v>
@@ -2787,15 +3417,15 @@
         <v>325</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -2807,15 +3437,15 @@
         <v>326</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C92">
         <v>8</v>
@@ -2827,15 +3457,15 @@
         <v>334</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>189</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C93">
         <v>8</v>
@@ -2847,15 +3477,15 @@
         <v>342</v>
       </c>
       <c r="F93" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C94">
         <v>3</v>
@@ -2867,15 +3497,15 @@
         <v>345</v>
       </c>
       <c r="F94" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C95">
         <v>3</v>
@@ -2887,15 +3517,15 @@
         <v>348</v>
       </c>
       <c r="F95" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -2907,15 +3537,15 @@
         <v>349</v>
       </c>
       <c r="F96" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>197</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C97">
         <v>8</v>
@@ -2927,12 +3557,12 @@
         <v>357</v>
       </c>
       <c r="F97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>199</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>200</v>
@@ -2947,15 +3577,15 @@
         <v>365</v>
       </c>
       <c r="F98" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C99">
         <v>50</v>
@@ -2967,15 +3597,15 @@
         <v>415</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C100">
         <v>32</v>
@@ -2987,15 +3617,15 @@
         <v>447</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C101">
         <v>344</v>
@@ -3007,34 +3637,43 @@
         <v>791</v>
       </c>
       <c r="F101" t="s">
-        <v>103</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/formats/excel/Formats RHA ANO 17.xlsx
+++ b/formats/excel/Formats RHA ANO 17.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$101</definedName>
+  </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
@@ -501,7 +504,7 @@
     <t>PBCMU</t>
   </si>
   <si>
-    <t>FILLER2</t>
+    <t>Filler2</t>
   </si>
   <si>
     <t xml:space="preserve">Identifiant anonyme d'hospitalisation </t>
@@ -528,7 +531,7 @@
     <t>IDHOSPI1</t>
   </si>
   <si>
-    <t>Filler2</t>
+    <t>Filler3</t>
   </si>
   <si>
     <t xml:space="preserve">Rang de naissance  </t>
@@ -621,7 +624,7 @@
     <t>DTSORT2</t>
   </si>
   <si>
-    <t>Filler3</t>
+    <t>Filler4</t>
   </si>
   <si>
     <t xml:space="preserve">Empreinte numérique </t>
@@ -641,12 +644,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -660,17 +663,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -682,18 +686,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -706,17 +703,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -735,30 +753,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,6 +776,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -780,32 +800,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,7 +816,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,19 +870,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,7 +900,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +960,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,85 +978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,30 +1000,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1011,6 +1007,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1023,47 +1034,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,176 +1063,195 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1605,11 +1601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5733333333333" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -1640,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" hidden="1" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1660,7 +1656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" hidden="1" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1680,7 +1676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" hidden="1" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1700,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" hidden="1" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1720,7 +1716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" hidden="1" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" hidden="1" spans="1:6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1760,7 +1756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" hidden="1" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1780,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" hidden="1" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1800,7 +1796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" hidden="1" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1820,7 +1816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" hidden="1" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1840,7 +1836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" hidden="1" spans="1:6">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1860,7 +1856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" hidden="1" spans="1:6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1880,7 +1876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" hidden="1" spans="1:6">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1900,7 +1896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" hidden="1" spans="1:6">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1920,7 +1916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" hidden="1" spans="1:6">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1940,7 +1936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" hidden="1" spans="1:6">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1960,7 +1956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" hidden="1" spans="1:6">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1980,7 +1976,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" hidden="1" spans="1:6">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2000,7 +1996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" hidden="1" spans="1:6">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2020,7 +2016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" hidden="1" spans="1:6">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2040,7 +2036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" hidden="1" spans="1:6">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -2060,7 +2056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" hidden="1" spans="1:6">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -2080,7 +2076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" hidden="1" spans="1:6">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2100,7 +2096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" hidden="1" spans="1:6">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -2120,7 +2116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" hidden="1" spans="1:6">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2140,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" ht="18" customHeight="1" spans="1:6">
+    <row r="27" ht="18" hidden="1" customHeight="1" spans="1:6">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -2160,7 +2156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" hidden="1" spans="1:6">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2180,7 +2176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" hidden="1" spans="1:6">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2200,7 +2196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" hidden="1" spans="1:6">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -2220,7 +2216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" hidden="1" spans="1:6">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2240,7 +2236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" hidden="1" spans="1:6">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -2260,7 +2256,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" hidden="1" spans="1:6">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -2280,7 +2276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" hidden="1" spans="1:6">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -2300,7 +2296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" hidden="1" spans="1:6">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -2320,7 +2316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" hidden="1" spans="1:6">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2340,7 +2336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" hidden="1" spans="1:6">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -2360,7 +2356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" hidden="1" spans="1:6">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -2400,7 +2396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" hidden="1" spans="1:6">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -2420,7 +2416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" hidden="1" spans="1:6">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -2440,7 +2436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" hidden="1" spans="1:6">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -2460,7 +2456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" hidden="1" spans="1:6">
       <c r="A43" t="s">
         <v>90</v>
       </c>
@@ -2480,7 +2476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" hidden="1" spans="1:6">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -2500,7 +2496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" hidden="1" spans="1:6">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -2520,7 +2516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" hidden="1" spans="1:6">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -2540,7 +2536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" hidden="1" spans="1:6">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" hidden="1" spans="1:6">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -2580,7 +2576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" hidden="1" spans="1:6">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -2600,7 +2596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" hidden="1" spans="1:6">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -2620,7 +2616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" hidden="1" spans="1:6">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -2640,7 +2636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" hidden="1" spans="1:6">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -2660,7 +2656,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" hidden="1" spans="1:6">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -2680,7 +2676,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" hidden="1" spans="1:6">
       <c r="A54" t="s">
         <v>112</v>
       </c>
@@ -2700,7 +2696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" hidden="1" spans="1:6">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -2720,7 +2716,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" hidden="1" spans="1:6">
       <c r="A56" t="s">
         <v>116</v>
       </c>
@@ -2740,7 +2736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" hidden="1" spans="1:6">
       <c r="A57" t="s">
         <v>118</v>
       </c>
@@ -2760,7 +2756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" hidden="1" spans="1:6">
       <c r="A58" t="s">
         <v>120</v>
       </c>
@@ -2780,7 +2776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" hidden="1" spans="1:6">
       <c r="A59" t="s">
         <v>122</v>
       </c>
@@ -2800,7 +2796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" hidden="1" spans="1:6">
       <c r="A60" t="s">
         <v>124</v>
       </c>
@@ -2820,7 +2816,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" hidden="1" spans="1:6">
       <c r="A61" t="s">
         <v>126</v>
       </c>
@@ -2840,7 +2836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" hidden="1" spans="1:6">
       <c r="A62" t="s">
         <v>128</v>
       </c>
@@ -2860,7 +2856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" hidden="1" spans="1:6">
       <c r="A63" t="s">
         <v>130</v>
       </c>
@@ -2880,7 +2876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" hidden="1" spans="1:6">
       <c r="A64" t="s">
         <v>132</v>
       </c>
@@ -2900,7 +2896,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" hidden="1" spans="1:6">
       <c r="A65" t="s">
         <v>134</v>
       </c>
@@ -2920,7 +2916,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" hidden="1" spans="1:6">
       <c r="A66" t="s">
         <v>136</v>
       </c>
@@ -2940,7 +2936,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" hidden="1" spans="1:6">
       <c r="A67" t="s">
         <v>138</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" hidden="1" spans="1:6">
       <c r="A68" t="s">
         <v>140</v>
       </c>
@@ -2980,7 +2976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" hidden="1" spans="1:6">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -3000,7 +2996,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" hidden="1" spans="1:6">
       <c r="A70" t="s">
         <v>144</v>
       </c>
@@ -3020,7 +3016,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" hidden="1" spans="1:6">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -3040,7 +3036,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" hidden="1" spans="1:6">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -3060,7 +3056,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" hidden="1" spans="1:6">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -3080,7 +3076,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" hidden="1" spans="1:6">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -3100,7 +3096,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" hidden="1" spans="1:6">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -3120,7 +3116,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" hidden="1" spans="1:6">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -3140,7 +3136,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" hidden="1" spans="1:6">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -3180,7 +3176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" hidden="1" spans="1:6">
       <c r="A79" t="s">
         <v>162</v>
       </c>
@@ -3200,7 +3196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" hidden="1" spans="1:6">
       <c r="A80" t="s">
         <v>164</v>
       </c>
@@ -3220,7 +3216,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" hidden="1" spans="1:6">
       <c r="A81" t="s">
         <v>166</v>
       </c>
@@ -3240,7 +3236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" hidden="1" spans="1:6">
       <c r="A82" t="s">
         <v>168</v>
       </c>
@@ -3280,7 +3276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" hidden="1" spans="1:6">
       <c r="A84" t="s">
         <v>171</v>
       </c>
@@ -3300,7 +3296,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" hidden="1" spans="1:6">
       <c r="A85" t="s">
         <v>173</v>
       </c>
@@ -3320,7 +3316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" hidden="1" spans="1:6">
       <c r="A86" t="s">
         <v>175</v>
       </c>
@@ -3340,7 +3336,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" hidden="1" spans="1:6">
       <c r="A87" t="s">
         <v>177</v>
       </c>
@@ -3360,7 +3356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" hidden="1" spans="1:6">
       <c r="A88" t="s">
         <v>179</v>
       </c>
@@ -3380,7 +3376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" hidden="1" spans="1:6">
       <c r="A89" t="s">
         <v>181</v>
       </c>
@@ -3400,7 +3396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" hidden="1" spans="1:6">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -3420,7 +3416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" hidden="1" spans="1:6">
       <c r="A91" t="s">
         <v>185</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" hidden="1" spans="1:6">
       <c r="A92" t="s">
         <v>187</v>
       </c>
@@ -3460,7 +3456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" hidden="1" spans="1:6">
       <c r="A93" t="s">
         <v>189</v>
       </c>
@@ -3480,7 +3476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" hidden="1" spans="1:6">
       <c r="A94" t="s">
         <v>191</v>
       </c>
@@ -3500,7 +3496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" hidden="1" spans="1:6">
       <c r="A95" t="s">
         <v>193</v>
       </c>
@@ -3520,7 +3516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" hidden="1" spans="1:6">
       <c r="A96" t="s">
         <v>195</v>
       </c>
@@ -3540,7 +3536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" hidden="1" spans="1:6">
       <c r="A97" t="s">
         <v>197</v>
       </c>
@@ -3560,7 +3556,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" hidden="1" spans="1:6">
       <c r="A98" t="s">
         <v>199</v>
       </c>
@@ -3600,7 +3596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" hidden="1" spans="1:6">
       <c r="A100" t="s">
         <v>202</v>
       </c>
@@ -3620,7 +3616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" hidden="1" spans="1:6">
       <c r="A101" t="s">
         <v>204</v>
       </c>
@@ -3641,6 +3637,15 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F101">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Filler1"/>
+        <filter val="FILLER2"/>
+        <filter val="Filler3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
